--- a/tests/data/test.xlsx
+++ b/tests/data/test.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\mxRAG\tests\mx_rag\document\loader\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C20TR5\mxRAG_New\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DE85F2-C541-40C8-9ECC-6BC9E337872D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21450" windowHeight="16245" activeTab="1" xr2:uid="{9C1927DD-C6F1-41F2-B661-D0AF29C81AED}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21456" windowHeight="16248"/>
   </bookViews>
   <sheets>
     <sheet name="不需要订阅" sheetId="1" r:id="rId1"/>
     <sheet name="crawler" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,11 +59,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>count
-（3月15日为例）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>SUM</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -146,13 +140,17 @@
   </si>
   <si>
     <t>41篇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>count(3月15日为例)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -609,21 +607,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F13D9BE-1413-480F-9362-72ECF7C62C8D}">
-  <dimension ref="B4:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="38.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
         <v>6</v>
@@ -632,113 +631,128 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>14</v>
-      </c>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="10"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="10"/>
     </row>
-    <row r="6" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="11" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="11" t="s">
+    <row r="11" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="C11" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="11"/>
-      <c r="C10" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="G5:G9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://www.jiqizhixin.com/categories/basic" xr:uid="{85E98756-4BEC-42F2-8780-5500EEF6FFC5}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{BE801FD6-006F-495F-A381-37297BFA0430}"/>
-    <hyperlink ref="D8" r:id="rId3" display="https://www.geekpark.net/column/2" xr:uid="{8C8598F2-A593-4559-B353-2AA734ACA420}"/>
-    <hyperlink ref="D9" r:id="rId4" display="https://huggingface.co/papers?ref=openi.cn" xr:uid="{9AEF0F82-679F-41D2-BA13-19240144A82C}"/>
-    <hyperlink ref="D10" r:id="rId5" display="https://paperswithcode.com/latest" xr:uid="{EFA02C3A-5A24-4C07-9D09-C59131D2A3BC}"/>
-    <hyperlink ref="D6" r:id="rId6" xr:uid="{DE6C4A29-C81D-4389-8EDA-8D94F159B345}"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://www.jiqizhixin.com/categories/basic"/>
+    <hyperlink ref="D8" r:id="rId2"/>
+    <hyperlink ref="D9" r:id="rId3" display="https://www.geekpark.net/column/2"/>
+    <hyperlink ref="D10" r:id="rId4" display="https://huggingface.co/papers?ref=openi.cn"/>
+    <hyperlink ref="D11" r:id="rId5" display="https://paperswithcode.com/latest"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -746,23 +760,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90969CC3-2709-4814-9CC6-8A4F3E9D462A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>

--- a/tests/data/test.xlsx
+++ b/tests/data/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C20TR5\mxRAG_New\tests\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\RAG\ragmaster\mxRAG\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D957CA8-F30C-4E7F-ACB7-7092846E1295}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21456" windowHeight="16248"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21456" windowHeight="16248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="不需要订阅" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>bat name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,13 +68,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>机器之心</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>入门 | 机器之心 (jiqizhixin.com)</t>
-  </si>
-  <si>
     <t>9篇</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -82,33 +76,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>量子位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zhihu.com/org/liang-zi-wei-48/posts</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>4篇</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>新智元</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.zhihu.com/org/xin-zhi-yuan-88-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>极客公园</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>行业资讯 | 极客公园 (geekpark.net)</t>
-  </si>
-  <si>
     <t>7篇</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -117,13 +88,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>huggingFace</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日报 - 拥抱脸部 (huggingface.co)</t>
-  </si>
-  <si>
     <t>14篇</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -132,25 +96,62 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>PaperWithCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>带代码的最新论文 |带代码的论文 (paperswithcode.com)</t>
-  </si>
-  <si>
     <t>41篇</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>count(3月15日为例)</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>www.test1.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.test2.com</t>
+  </si>
+  <si>
+    <t>www.test3.com</t>
+  </si>
+  <si>
+    <t>www.test4.com</t>
+  </si>
+  <si>
+    <t>www.test5.com</t>
+  </si>
+  <si>
+    <t>www.test6.com</t>
+  </si>
+  <si>
+    <t>www.test7.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -256,7 +257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,9 +284,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,11 +605,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -631,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="4" t="s">
@@ -639,104 +637,108 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="10"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D10" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="10"/>
+      <c r="C11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>28</v>
+      <c r="D11" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -747,20 +749,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="https://www.jiqizhixin.com/categories/basic"/>
-    <hyperlink ref="D8" r:id="rId2"/>
-    <hyperlink ref="D9" r:id="rId3" display="https://www.geekpark.net/column/2"/>
-    <hyperlink ref="D10" r:id="rId4" display="https://huggingface.co/papers?ref=openi.cn"/>
-    <hyperlink ref="D11" r:id="rId5" display="https://paperswithcode.com/latest"/>
-    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D6:D11" r:id="rId2" display="www.test1.com" xr:uid="{19084D6A-6BFB-453B-8524-4A57C626855A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/tests/data/test.xlsx
+++ b/tests/data/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject\RAG\ragmaster\mxRAG\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D957CA8-F30C-4E7F-ACB7-7092846E1295}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157AD9BD-1172-42BF-B233-C76ECCCC88E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21456" windowHeight="16248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>bat name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,9 +108,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>test3</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
   <si>
     <t>www.test1.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.test2.com</t>
   </si>
   <si>
     <t>www.test3.com</t>
@@ -606,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:G11"/>
+  <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -644,7 +638,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>10</v>
@@ -660,19 +654,21 @@
         <v>20</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -680,77 +676,63 @@
       <c r="F7" s="6"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="2:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" s="8"/>
-      <c r="G10" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="10"/>
+      <c r="G10" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="G5:G9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D6:D11" r:id="rId2" display="www.test1.com" xr:uid="{19084D6A-6BFB-453B-8524-4A57C626855A}"/>
+    <hyperlink ref="D6:D10" r:id="rId2" display="www.test1.com" xr:uid="{19084D6A-6BFB-453B-8524-4A57C626855A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
